--- a/data/trans_orig/CALVIDA_SF12_PCB-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/CALVIDA_SF12_PCB-Estudios-trans_orig.xlsx
@@ -561,12 +561,12 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>41,97</t>
+          <t>41,99</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>42,32</t>
+          <t>42,31</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>42,4; 43,33</t>
+          <t>42,19; 43,49</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>41,62; 42,29</t>
+          <t>41,48; 42,45</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>42,05; 42,59</t>
+          <t>41,9; 42,7</t>
         </is>
       </c>
     </row>
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>43,69</t>
+          <t>43,12</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>44,19</t>
+          <t>44,4</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>43,95</t>
+          <t>43,76</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>43,44; 43,91</t>
+          <t>42,29; 43,67</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>43,98; 44,5</t>
+          <t>43,88; 45,05</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>43,79; 44,17</t>
+          <t>43,05; 44,23</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>44,19</t>
+          <t>44,11</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>44,2</t>
+          <t>44,1</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>44,2</t>
+          <t>44,11</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>43,86; 44,54</t>
+          <t>43,7; 44,52</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>43,95; 44,5</t>
+          <t>43,72; 44,49</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>43,97; 44,4</t>
+          <t>43,82; 44,38</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>43,66</t>
+          <t>43,31</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>43,7</t>
+          <t>43,91</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>43,68</t>
+          <t>43,62</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>43,47; 43,83</t>
+          <t>42,61; 43,69</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>43,55; 43,96</t>
+          <t>43,55; 44,48</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>43,55; 43,82</t>
+          <t>43,2; 44,0</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/CALVIDA_SF12_PCB-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/CALVIDA_SF12_PCB-Estudios-trans_orig.xlsx
@@ -497,7 +497,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Calidad de vida asociada a la salud (SF12 física)</t>
+          <t>Calidad de vida asociada a la salud (SF12 física) (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/CALVIDA_SF12_PCB-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/CALVIDA_SF12_PCB-Estudios-trans_orig.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>42,19; 43,49</t>
+          <t>42,16; 43,56</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>41,48; 42,45</t>
+          <t>41,45; 42,41</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>41,9; 42,7</t>
+          <t>41,93; 42,73</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>42,29; 43,67</t>
+          <t>42,28; 43,66</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>43,88; 45,05</t>
+          <t>43,9; 45,1</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>43,05; 44,23</t>
+          <t>43,04; 44,24</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>43,7; 44,52</t>
+          <t>43,72; 44,53</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>43,72; 44,49</t>
+          <t>43,74; 44,51</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>43,82; 44,38</t>
+          <t>43,84; 44,4</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>42,61; 43,69</t>
+          <t>42,58; 43,7</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>43,55; 44,48</t>
+          <t>43,55; 44,53</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>43,2; 44,0</t>
+          <t>43,2; 43,97</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/CALVIDA_SF12_PCB-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/CALVIDA_SF12_PCB-Estudios-trans_orig.xlsx
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>42,86</t>
+          <t>42,89</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>41,99</t>
+          <t>42,03</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>42,31</t>
+          <t>42,35</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>42,16; 43,56</t>
+          <t>42,21; 43,53</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>41,45; 42,41</t>
+          <t>41,51; 42,46</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>41,93; 42,73</t>
+          <t>41,97; 42,76</t>
         </is>
       </c>
     </row>
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>43,12</t>
+          <t>43,66</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>44,4</t>
+          <t>43,86</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>43,76</t>
+          <t>43,75</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>42,28; 43,66</t>
+          <t>43,38; 43,92</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>43,9; 45,1</t>
+          <t>43,6; 44,1</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>43,04; 44,24</t>
+          <t>43,58; 43,95</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>44,11</t>
+          <t>44,12</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
+          <t>44,09</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>44,1</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>44,11</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>43,72; 44,53</t>
+          <t>43,75; 44,55</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>43,74; 44,51</t>
+          <t>43,72; 44,46</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>43,84; 44,4</t>
+          <t>43,81; 44,36</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>43,31</t>
+          <t>43,67</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>43,91</t>
+          <t>43,55</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>43,62</t>
+          <t>43,61</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>42,58; 43,7</t>
+          <t>43,46; 43,9</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>43,55; 44,53</t>
+          <t>43,35; 43,73</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>43,2; 43,97</t>
+          <t>43,47; 43,76</t>
         </is>
       </c>
     </row>
